--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004v8ph\Documents\Hackathon\Code\Object_Detection_YOLOv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D83DCA0-D135-4298-A959-2676486E818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09797D4F-CC61-433A-B6DD-44501CB8FB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9552E424-05A4-4AF9-9D88-537BFB3DF947}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9552E424-05A4-4AF9-9D88-537BFB3DF947}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -149,9 +152,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,11 +167,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B18" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B06EFAB-A59C-48E0-A155-F2C8FFE9FB26}" name="Instruction Number" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{224A8228-565E-47B7-8C21-4B3A9FA931DE}" name="Instruction" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6B06EFAB-A59C-48E0-A155-F2C8FFE9FB26}" name="Instruction Number" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{224A8228-565E-47B7-8C21-4B3A9FA931DE}" name="Instruction" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47339C-7596-4D41-AB85-DEA08676E472}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z004v8ph\Documents\Hackathon\Code\Object_Detection_YOLOv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09797D4F-CC61-433A-B6DD-44501CB8FB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E974D-6410-40DF-A40E-4B97FDFCC175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9552E424-05A4-4AF9-9D88-537BFB3DF947}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9552E424-05A4-4AF9-9D88-537BFB3DF947}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,63 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Apply a small drop of purple Loctite 89999 to two of the NYK:Z916001090000 ¼-20 x 1.0” bolts.</t>
-  </si>
-  <si>
-    <t>Position the U-Channel bracket part number NYK:Z610399470001 in the housing as shown</t>
-  </si>
-  <si>
-    <t>Install the two ¼-20 x 1.0” bolts , where indicated with the arrows. Tighten the bolts with a 3/8” socket or nut driver and torque to 50 in-lbs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Instruction Number</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position the U-Channel bracket part number NYK:Z610399470001 in the housing </t>
+  </si>
+  <si>
+    <t>Insert the two ¼-20 x 1.0” bolts. Tighten the bolts with a 3/8” socket or nut driver and torque to 50 in-lbs</t>
   </si>
   <si>
     <t>Install the manifold assembly part number NYK:9000903920001 in the U-Channel bracket as shown</t>
   </si>
   <si>
-    <t>Place a small drop of Loctite 89999 on three of the NYK:916001420000 ¼-20 x ½” bolts</t>
-  </si>
-  <si>
-    <t>. install where indicated with orange arrows. Tighten with a 3/8” socket or nut driver and torque each bolt to 50 in-lbs</t>
-  </si>
-  <si>
-    <t>Take the battery part number NYK:Z801011870000 and install in the housing with the protruding side (Side containing the circuit board) down as shown. The battery manufacturers label could be on this side so do not use the battery label as an indicator of which side should face out.</t>
-  </si>
-  <si>
-    <t>Route the battery wires as shown against the vertical piece of seal tape</t>
-  </si>
-  <si>
-    <t>Take the Battery cover part number NYK:Z640399550001 and Battery cushion part number NYK:Z916001440000.</t>
-  </si>
-  <si>
-    <t>Peel the paper off the adhesive side of Battery cushion NYK:Z916001440000 and apply it to the battery cover as shown. Force out any air bubbles using the handle of the #2 phillips screw driver.</t>
-  </si>
-  <si>
-    <t>Make sure the sides of the Battery cushion are wrapped around the edges of the battery cover as shown and are securely adhered around the edges</t>
-  </si>
-  <si>
-    <t>Place the Battery cover assembly in the back housing as shown.</t>
-  </si>
-  <si>
-    <t>Make sure the battery cable is routed out of the side between the foam tape on the housing and the battery cover as shown.</t>
-  </si>
-  <si>
-    <t>Take four of NYK:Z916001120000 M-F standoffs and apply a small drop of purple Loctite part number 89999.</t>
-  </si>
-  <si>
-    <t>Install the four M-F standoffs where indicated with the arrows. Tighten with a 3/8” socket or nut driver and torque to 30 in-lbs.</t>
-  </si>
-  <si>
-    <t>Take four of NYK:Z916001130000 M-M vibration dampening standoffs and apply a small drop of purple Loctite part number 89999.</t>
-  </si>
-  <si>
-    <t>Install the four NYK:Z916001130000 where indicated with the Arrow below. Hand tighten.</t>
-  </si>
-  <si>
-    <t>Instruction Number</t>
-  </si>
-  <si>
-    <t>Instruction</t>
+    <t>Insert three of the NYK:916001420000 ¼-20 x ½” bolts and tighten with a 3/8” socket or nut driver and torque each bolt to 50 in-lbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take the battery part number NYK:Z801011870000 and install in the housing with the protruding side down . </t>
+  </si>
+  <si>
+    <t>Take battery cushion NYK:Z916001440000 and apply it to the battery cover.</t>
+  </si>
+  <si>
+    <t>Place the Battery cover NYK:Z640399550001 in assembly.</t>
+  </si>
+  <si>
+    <t>Install the four M-F standoffs. Tighten with a 3/8” socket or nut driver and torque to 30 in-lbs.</t>
   </si>
 </sst>
 </file>
@@ -167,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}" name="Table1" displayName="Table1" ref="A1:B18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B18" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}" name="Table1" displayName="Table1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B9" xr:uid="{BF6BF0EC-F52C-4BC6-9006-0247A05AFF97}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6B06EFAB-A59C-48E0-A155-F2C8FFE9FB26}" name="Instruction Number" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{224A8228-565E-47B7-8C21-4B3A9FA931DE}" name="Instruction" dataDxfId="0"/>
@@ -494,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C47339C-7596-4D41-AB85-DEA08676E472}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,10 +482,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -521,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -529,23 +502,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -553,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -561,95 +534,23 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
         <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
